--- a/quizzes/11. Công nghệ thông tin.xlsx
+++ b/quizzes/11. Công nghệ thông tin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Downloads/CHINHANH-DOT2/TAILIEUONTAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Projects/quiz-nghiep-vu/quizzes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC8A0F-56A8-DF49-B846-6E28B9880370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB6BD5-B366-E74E-AA84-2A6C1BE8A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="620" windowWidth="32000" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="32000" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="240 câu" sheetId="8" r:id="rId1"/>
@@ -25,10 +25,6 @@
     <t>CÂU HỎI</t>
   </si>
   <si>
-    <t>TRÍCH DẪN 
-NGUỒN CÂU HỎI</t>
-  </si>
-  <si>
     <t>ĐÁP ÁN ĐÚNG</t>
   </si>
   <si>
@@ -3253,6 +3249,9 @@
   </si>
   <si>
     <t>Các máy chủ quản lý truy cập trung gian PAM/Jump của các hệ thống thông tin phải được chuẩn hóa, chỉ cài đặt những phần mềm phục vụ hỗ trợ từ xa, tăng cường các biện pháp bảo mật</t>
+  </si>
+  <si>
+    <t>TRÍCH DẪN NGUỒN</t>
   </si>
 </sst>
 </file>
@@ -3576,17 +3575,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3992,7 +3991,7 @@
   <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="24"/>
@@ -4009,28 +4008,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38">
       <c r="A1" s="29" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="190">
@@ -4038,25 +4037,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="30" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="190">
@@ -4064,25 +4063,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="4">
         <v>4</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="152">
@@ -4090,23 +4089,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="152">
@@ -4114,25 +4113,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="133">
@@ -4140,23 +4139,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="133">
@@ -4164,23 +4163,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="209">
@@ -4188,25 +4187,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>952</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="133">
@@ -4214,23 +4213,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="114">
@@ -4238,25 +4237,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="152">
@@ -4264,23 +4263,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="133">
@@ -4288,23 +4287,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="4">
         <v>3</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="114">
@@ -4312,13 +4311,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4326,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="133">
@@ -4334,25 +4333,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="30" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="133">
@@ -4360,25 +4359,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="76">
@@ -4386,25 +4385,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="F16" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>92</v>
       </c>
       <c r="G16" s="4">
         <v>3</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="133">
@@ -4412,25 +4411,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="114">
@@ -4438,25 +4437,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>99</v>
-      </c>
       <c r="D18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="95">
@@ -4464,25 +4463,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="30" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>102</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="76">
@@ -4490,25 +4489,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="E20" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="76">
@@ -4516,25 +4515,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="F21" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="95">
@@ -4542,25 +4541,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="76">
@@ -4568,25 +4567,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="95">
@@ -4594,25 +4593,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="F24" s="30" t="s">
         <v>127</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>128</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="95">
@@ -4620,25 +4619,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="95">
@@ -4646,25 +4645,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="133">
@@ -4672,25 +4671,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>141</v>
-      </c>
       <c r="F27" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="76">
@@ -4698,25 +4697,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G28" s="4">
         <v>4</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="76">
@@ -4724,25 +4723,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>148</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="95">
@@ -4750,25 +4749,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E30" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="114">
@@ -4776,25 +4775,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="F31" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="133">
@@ -4802,25 +4801,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="E32" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>161</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>162</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="133">
@@ -4828,25 +4827,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="E33" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>166</v>
-      </c>
       <c r="F33" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="133">
@@ -4854,25 +4853,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>170</v>
-      </c>
       <c r="E34" s="30" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="4">
         <v>4</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="95">
@@ -4880,25 +4879,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="D35" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>175</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="95">
@@ -4906,25 +4905,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="G36" s="6">
         <v>4</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="95">
@@ -4932,23 +4931,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="4">
         <v>2</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="76">
@@ -4956,23 +4955,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>192</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="4">
         <v>2</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="57">
@@ -4980,23 +4979,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>312</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>313</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="4">
         <v>1</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="57">
@@ -5004,25 +5003,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="G40" s="10">
         <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="152">
@@ -5030,13 +5029,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -5044,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="76">
@@ -5052,23 +5051,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>324</v>
-      </c>
       <c r="E42" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="76">
@@ -5076,23 +5075,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="D43" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="E43" s="30" t="s">
         <v>327</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>328</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="4">
         <v>2</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="76">
@@ -5100,23 +5099,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>330</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>331</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="4">
         <v>2</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="133">
@@ -5124,23 +5123,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>335</v>
-      </c>
       <c r="E45" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="4">
         <v>3</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="95">
@@ -5148,23 +5147,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="4">
         <v>3</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="76">
@@ -5172,25 +5171,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>342</v>
-      </c>
       <c r="F47" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G47" s="6">
         <v>4</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="152">
@@ -5198,25 +5197,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="6">
         <v>3</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="95">
@@ -5224,25 +5223,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>82</v>
-      </c>
       <c r="E49" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>85</v>
       </c>
       <c r="G49" s="6">
         <v>2</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="76">
@@ -5250,25 +5249,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="D50" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="E50" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>349</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>350</v>
       </c>
       <c r="G50" s="6">
         <v>3</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="114">
@@ -5276,25 +5275,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="E51" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="F51" s="30" t="s">
         <v>355</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>356</v>
       </c>
       <c r="G51" s="6">
         <v>1</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="133">
@@ -5302,25 +5301,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D52" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="E52" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>361</v>
-      </c>
       <c r="F52" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G52" s="6">
         <v>4</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="95">
@@ -5328,25 +5327,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>366</v>
-      </c>
       <c r="F53" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G53" s="6">
         <v>4</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="114">
@@ -5354,25 +5353,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D54" s="30" t="s">
+      <c r="E54" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="F54" s="30" t="s">
         <v>370</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>371</v>
       </c>
       <c r="G54" s="6">
         <v>1</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="57">
@@ -5380,25 +5379,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="E55" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>665</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>666</v>
       </c>
       <c r="G55" s="6">
         <v>3</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="228">
@@ -5406,25 +5405,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="E56" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="F56" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>379</v>
       </c>
       <c r="G56" s="6">
         <v>3</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="409.6">
@@ -5432,23 +5431,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>383</v>
-      </c>
       <c r="E57" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="4">
         <v>3</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="285">
@@ -5456,23 +5455,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>387</v>
-      </c>
       <c r="E58" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="4">
         <v>3</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="209">
@@ -5480,23 +5479,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>391</v>
-      </c>
       <c r="E59" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="4">
         <v>3</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="171">
@@ -5504,25 +5503,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="E60" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="F60" s="30" t="s">
         <v>395</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>396</v>
       </c>
       <c r="G60" s="4">
         <v>1</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="152">
@@ -5530,25 +5529,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E61" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="F61" s="30" t="s">
         <v>400</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>401</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="209">
@@ -5556,25 +5555,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="D62" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="F62" s="30" t="s">
         <v>405</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>406</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="304">
@@ -5582,25 +5581,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="E63" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>411</v>
-      </c>
       <c r="F63" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G63" s="4">
         <v>4</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="76">
@@ -5608,25 +5607,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="D64" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="E64" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="F64" s="30" t="s">
         <v>416</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>417</v>
       </c>
       <c r="G64" s="4">
         <v>4</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="57">
@@ -5634,25 +5633,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>423</v>
       </c>
       <c r="G65" s="4">
         <v>3</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="76">
@@ -5660,25 +5659,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="D66" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="F66" s="30" t="s">
         <v>427</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>428</v>
       </c>
       <c r="G66" s="4">
         <v>3</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="95">
@@ -5686,25 +5685,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="F67" s="30" t="s">
         <v>432</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>433</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="114">
@@ -5712,23 +5711,23 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="E68" s="30" t="s">
         <v>436</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>437</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="4">
         <v>1</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="57">
@@ -5736,13 +5735,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
@@ -5750,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="95">
@@ -5758,13 +5757,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
@@ -5772,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="133">
@@ -5780,25 +5779,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="D71" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="F71" s="30" t="s">
         <v>443</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>444</v>
       </c>
       <c r="G71" s="4">
         <v>4</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="76">
@@ -5806,25 +5805,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="D72" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="F72" s="30" t="s">
         <v>448</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>449</v>
       </c>
       <c r="G72" s="4">
         <v>4</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="114">
@@ -5832,13 +5831,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C73" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -5846,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="95">
@@ -5854,23 +5853,23 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="D74" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="E74" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>454</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="4">
         <v>1</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="95">
@@ -5878,23 +5877,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="E75" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>454</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="4">
         <v>2</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="95">
@@ -5902,13 +5901,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
@@ -5916,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="57">
@@ -5924,25 +5923,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="D77" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E77" s="30" t="s">
-        <v>461</v>
-      </c>
       <c r="F77" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G77" s="4">
         <v>2</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="57">
@@ -5950,25 +5949,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="E78" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E78" s="30" t="s">
-        <v>461</v>
-      </c>
       <c r="F78" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G78" s="4">
         <v>3</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="114">
@@ -5976,23 +5975,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D79" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>197</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="4">
         <v>2</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="152">
@@ -6000,13 +5999,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
@@ -6014,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="76">
@@ -6022,25 +6021,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="D81" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="E81" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="F81" s="30" t="s">
         <v>203</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>204</v>
       </c>
       <c r="G81" s="4">
         <v>4</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="114">
@@ -6048,25 +6047,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="D82" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="E82" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="F82" s="30" t="s">
         <v>208</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>209</v>
       </c>
       <c r="G82" s="4">
         <v>4</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="76">
@@ -6074,25 +6073,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="D83" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="E83" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="F83" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>214</v>
       </c>
       <c r="G83" s="4">
         <v>4</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="95">
@@ -6100,25 +6099,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="D84" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="E84" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="F84" s="30" t="s">
         <v>218</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>219</v>
       </c>
       <c r="G84" s="4">
         <v>2</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="114">
@@ -6126,25 +6125,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="D85" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="E85" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="F85" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>224</v>
       </c>
       <c r="G85" s="4">
         <v>2</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="57">
@@ -6152,25 +6151,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="D86" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="E86" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="F86" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>229</v>
       </c>
       <c r="G86" s="4">
         <v>2</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="57">
@@ -6178,25 +6177,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="D87" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="E87" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="F87" s="30" t="s">
         <v>233</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>234</v>
       </c>
       <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="190">
@@ -6204,23 +6203,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="D88" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="E88" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="4">
         <v>3</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="95">
@@ -6228,23 +6227,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="D89" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="E89" s="30" t="s">
         <v>241</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>242</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="4">
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="38">
@@ -6252,25 +6251,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="D90" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="E90" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="F90" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="G90" s="4">
         <v>2</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38">
@@ -6278,25 +6277,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="D91" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="E91" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="F91" s="30" t="s">
         <v>251</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="G91" s="4">
         <v>3</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="38">
@@ -6304,25 +6303,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="D92" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="E92" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="F92" s="30" t="s">
         <v>256</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>257</v>
       </c>
       <c r="G92" s="4">
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="38">
@@ -6330,25 +6329,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="D93" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="E93" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="F93" s="30" t="s">
         <v>261</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>262</v>
       </c>
       <c r="G93" s="4">
         <v>4</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="57">
@@ -6356,13 +6355,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="D94" s="30" t="s">
         <v>264</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>265</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="30"/>
@@ -6370,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="57">
@@ -6378,23 +6377,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="D95" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="E95" s="30" t="s">
         <v>268</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>269</v>
       </c>
       <c r="F95" s="30"/>
       <c r="G95" s="4">
         <v>3</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="38">
@@ -6402,25 +6401,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="D96" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="E96" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>273</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>274</v>
       </c>
       <c r="G96" s="4">
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="38">
@@ -6428,25 +6427,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="D97" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="E97" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="F97" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>279</v>
       </c>
       <c r="G97" s="4">
         <v>4</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="95">
@@ -6454,13 +6453,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="D98" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
@@ -6468,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="114">
@@ -6476,25 +6475,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="D99" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="E99" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="F99" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>287</v>
       </c>
       <c r="G99" s="4">
         <v>1</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="57">
@@ -6502,13 +6501,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
@@ -6516,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="57">
@@ -6524,23 +6523,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="D101" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="F101" s="30"/>
       <c r="G101" s="4">
         <v>1</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="133">
@@ -6548,25 +6547,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="D102" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="E102" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="F102" s="30" t="s">
         <v>295</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>296</v>
       </c>
       <c r="G102" s="4">
         <v>4</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="152">
@@ -6574,25 +6573,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="D103" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="E103" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="F103" s="30" t="s">
         <v>300</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>301</v>
       </c>
       <c r="G103" s="4">
         <v>4</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="57">
@@ -6600,25 +6599,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="E104" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>306</v>
       </c>
       <c r="G104" s="4">
         <v>1</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="57">
@@ -6626,25 +6625,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="D105" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="E105" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="F105" s="30" t="s">
         <v>309</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>310</v>
       </c>
       <c r="G105" s="4">
         <v>3</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="171">
@@ -6652,23 +6651,23 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="D106" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="E106" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>466</v>
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="114">
@@ -6676,23 +6675,23 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="D107" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>470</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>471</v>
       </c>
       <c r="F107" s="30"/>
       <c r="G107" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="114">
@@ -6700,23 +6699,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="D108" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="E108" s="30" t="s">
         <v>474</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>475</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="57">
@@ -6724,25 +6723,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="D109" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="E109" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="F109" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F109" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="H109" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="76">
@@ -6750,21 +6749,21 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="D110" s="30" t="s">
         <v>483</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>484</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="30"/>
       <c r="G110" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="57">
@@ -6772,25 +6771,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="D111" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="E111" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="F111" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="F111" s="30" t="s">
-        <v>490</v>
-      </c>
       <c r="G111" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="38">
@@ -6798,23 +6797,23 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="D112" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="E112" s="30" t="s">
         <v>493</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>494</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="76">
@@ -6822,25 +6821,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C113" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="D113" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="E113" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="E113" s="30" t="s">
-        <v>498</v>
-      </c>
       <c r="F113" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="133">
@@ -6848,25 +6847,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="D114" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="E114" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="E114" s="30" t="s">
-        <v>502</v>
-      </c>
       <c r="F114" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="57">
@@ -6874,25 +6873,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="D115" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="E115" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="E115" s="30" t="s">
-        <v>506</v>
-      </c>
       <c r="F115" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="76">
@@ -6900,25 +6899,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="D116" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="E116" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="E116" s="30" t="s">
-        <v>510</v>
-      </c>
       <c r="F116" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="114">
@@ -6926,23 +6925,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D117" s="30" t="s">
         <v>511</v>
       </c>
-      <c r="C117" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>512</v>
-      </c>
       <c r="E117" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="76">
@@ -6950,23 +6949,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="D118" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="E118" s="30" t="s">
         <v>515</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>516</v>
       </c>
       <c r="F118" s="30"/>
       <c r="G118" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="57">
@@ -6974,25 +6973,25 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="D119" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="E119" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="F119" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="F119" s="30" t="s">
-        <v>521</v>
-      </c>
       <c r="G119" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="57">
@@ -7000,25 +6999,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C120" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="D120" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="E120" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="F120" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="F120" s="30" t="s">
-        <v>526</v>
-      </c>
       <c r="G120" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="76">
@@ -7026,25 +7025,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="D121" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="E121" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="F121" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="F121" s="30" t="s">
-        <v>531</v>
-      </c>
       <c r="G121" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="95">
@@ -7052,23 +7051,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="D122" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="E122" s="30" t="s">
         <v>534</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>535</v>
       </c>
       <c r="F122" s="30"/>
       <c r="G122" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="76">
@@ -7076,25 +7075,25 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C123" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="D123" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="E123" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="F123" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="F123" s="30" t="s">
-        <v>540</v>
-      </c>
       <c r="G123" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="95">
@@ -7102,21 +7101,21 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C124" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="D124" s="30" t="s">
         <v>542</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>543</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="30"/>
       <c r="G124" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="76">
@@ -7124,21 +7123,21 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C125" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="D125" s="30" t="s">
         <v>545</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>546</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="30"/>
       <c r="G125" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="76">
@@ -7146,23 +7145,23 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C126" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="D126" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="E126" s="30" t="s">
         <v>549</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>550</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="38">
@@ -7170,25 +7169,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C127" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="D127" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="E127" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="F127" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="F127" s="30" t="s">
-        <v>555</v>
-      </c>
       <c r="G127" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="76">
@@ -7196,23 +7195,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="E128" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="4">
         <v>1</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="95">
@@ -7220,23 +7219,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="E129" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="F129" s="30"/>
       <c r="G129" s="4">
         <v>1</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="76">
@@ -7244,23 +7243,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="E130" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="F130" s="30"/>
       <c r="G130" s="4">
         <v>2</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="95">
@@ -7268,23 +7267,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="4">
         <v>2</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="57">
@@ -7292,13 +7291,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="E132" s="30"/>
       <c r="F132" s="30"/>
@@ -7306,7 +7305,7 @@
         <v>2</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="38">
@@ -7314,13 +7313,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
@@ -7328,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="57">
@@ -7336,23 +7335,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C134" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="E134" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="4">
         <v>2</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="57">
@@ -7360,23 +7359,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="E135" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="F135" s="30"/>
       <c r="G135" s="4">
         <v>2</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="38">
@@ -7384,13 +7383,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C136" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="D136" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="E136" s="30"/>
       <c r="F136" s="30"/>
@@ -7398,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="57">
@@ -7406,23 +7405,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="D137" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="F137" s="30"/>
       <c r="G137" s="4">
         <v>2</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="152">
@@ -7430,23 +7429,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="D138" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="E138" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="F138" s="30"/>
       <c r="G138" s="4">
         <v>2</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="95">
@@ -7454,13 +7453,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="30"/>
@@ -7468,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="57">
@@ -7476,13 +7475,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="D140" s="30" t="s">
         <v>600</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>601</v>
       </c>
       <c r="E140" s="30"/>
       <c r="F140" s="30"/>
@@ -7490,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="114">
@@ -7498,13 +7497,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="30"/>
@@ -7512,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="133">
@@ -7520,13 +7519,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C142" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="D142" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="E142" s="30"/>
       <c r="F142" s="30"/>
@@ -7534,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="76">
@@ -7542,13 +7541,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C143" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="D143" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="E143" s="30"/>
       <c r="F143" s="30"/>
@@ -7556,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="171">
@@ -7564,23 +7563,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="D144" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="E144" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="F144" s="30"/>
       <c r="G144" s="4">
         <v>2</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="114">
@@ -7588,13 +7587,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="D145" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="E145" s="30"/>
       <c r="F145" s="30"/>
@@ -7602,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="38">
@@ -7610,13 +7609,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="D146" s="30" t="s">
         <v>619</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>620</v>
       </c>
       <c r="E146" s="30"/>
       <c r="F146" s="30"/>
@@ -7624,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="95">
@@ -7632,25 +7631,25 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C147" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="C147" s="30" t="s">
+      <c r="D147" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="D147" s="30" t="s">
+      <c r="E147" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="F147" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="F147" s="30" t="s">
-        <v>625</v>
-      </c>
       <c r="G147" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="95">
@@ -7658,23 +7657,23 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C148" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="D148" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="E148" s="30" t="s">
         <v>628</v>
-      </c>
-      <c r="E148" s="30" t="s">
-        <v>629</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="76">
@@ -7682,23 +7681,23 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C149" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="D149" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="D149" s="30" t="s">
+      <c r="E149" s="30" t="s">
         <v>632</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>633</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="57">
@@ -7706,21 +7705,21 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C150" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="D150" s="30" t="s">
         <v>635</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>636</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
       <c r="G150" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="76">
@@ -7728,21 +7727,21 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C151" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="57">
@@ -7750,25 +7749,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C152" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="D152" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="E152" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="E152" s="30" t="s">
+      <c r="F152" s="30" t="s">
         <v>677</v>
-      </c>
-      <c r="F152" s="30" t="s">
-        <v>678</v>
       </c>
       <c r="G152" s="4">
         <v>2</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="57">
@@ -7776,25 +7775,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C153" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="D153" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="E153" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="E153" s="30" t="s">
+      <c r="F153" s="30" t="s">
         <v>682</v>
-      </c>
-      <c r="F153" s="30" t="s">
-        <v>683</v>
       </c>
       <c r="G153" s="4">
         <v>4</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="76">
@@ -7802,25 +7801,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C154" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="D154" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="E154" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="E154" s="30" t="s">
+      <c r="F154" s="30" t="s">
         <v>687</v>
-      </c>
-      <c r="F154" s="30" t="s">
-        <v>688</v>
       </c>
       <c r="G154" s="4">
         <v>2</v>
       </c>
       <c r="H154" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="38">
@@ -7828,25 +7827,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C155" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="D155" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="E155" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="E155" s="30" t="s">
+      <c r="F155" s="30" t="s">
         <v>692</v>
-      </c>
-      <c r="F155" s="30" t="s">
-        <v>693</v>
       </c>
       <c r="G155" s="4">
         <v>2</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="57">
@@ -7854,25 +7853,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C156" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="D156" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="E156" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="E156" s="30" t="s">
+      <c r="F156" s="30" t="s">
         <v>697</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>698</v>
       </c>
       <c r="G156" s="4">
         <v>4</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="57">
@@ -7880,25 +7879,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C157" s="30" t="s">
         <v>699</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="D157" s="30" t="s">
         <v>700</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="E157" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="E157" s="30" t="s">
+      <c r="F157" s="30" t="s">
         <v>702</v>
-      </c>
-      <c r="F157" s="30" t="s">
-        <v>703</v>
       </c>
       <c r="G157" s="4">
         <v>2</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="57">
@@ -7906,25 +7905,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C158" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="E158" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="E158" s="30" t="s">
+      <c r="F158" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="F158" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="G158" s="4">
         <v>3</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="95">
@@ -7932,25 +7931,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C159" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="C159" s="30" t="s">
+      <c r="D159" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="D159" s="30" t="s">
+      <c r="E159" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="E159" s="30" t="s">
+      <c r="F159" s="30" t="s">
         <v>712</v>
-      </c>
-      <c r="F159" s="30" t="s">
-        <v>713</v>
       </c>
       <c r="G159" s="4">
         <v>3</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="38">
@@ -7958,25 +7957,25 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C160" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="D160" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="D160" s="30" t="s">
+      <c r="E160" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="E160" s="30" t="s">
+      <c r="F160" s="30" t="s">
         <v>717</v>
-      </c>
-      <c r="F160" s="30" t="s">
-        <v>718</v>
       </c>
       <c r="G160" s="4">
         <v>1</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="76">
@@ -7984,25 +7983,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C161" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="D161" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="E161" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="E161" s="30" t="s">
+      <c r="F161" s="30" t="s">
         <v>722</v>
-      </c>
-      <c r="F161" s="30" t="s">
-        <v>723</v>
       </c>
       <c r="G161" s="4">
         <v>3</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="76">
@@ -8010,25 +8009,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C162" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="D162" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="E162" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="E162" s="30" t="s">
+      <c r="F162" s="30" t="s">
         <v>727</v>
-      </c>
-      <c r="F162" s="30" t="s">
-        <v>728</v>
       </c>
       <c r="G162" s="4">
         <v>4</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="76">
@@ -8036,25 +8035,25 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C163" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="D163" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="D163" s="30" t="s">
+      <c r="E163" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="F163" s="30" t="s">
         <v>732</v>
-      </c>
-      <c r="F163" s="30" t="s">
-        <v>733</v>
       </c>
       <c r="G163" s="4">
         <v>3</v>
       </c>
       <c r="H163" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="38">
@@ -8062,25 +8061,25 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="D164" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="E164" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="F164" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="F164" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="G164" s="4">
         <v>1</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="57">
@@ -8088,25 +8087,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C165" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="D165" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="D165" s="30" t="s">
+      <c r="E165" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="E165" s="30" t="s">
+      <c r="F165" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="F165" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="G165" s="4">
         <v>3</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="76">
@@ -8114,25 +8113,25 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C166" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="D166" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="E166" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="E166" s="30" t="s">
+      <c r="F166" s="30" t="s">
         <v>747</v>
-      </c>
-      <c r="F166" s="30" t="s">
-        <v>748</v>
       </c>
       <c r="G166" s="4">
         <v>1</v>
       </c>
       <c r="H166" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="57">
@@ -8140,25 +8139,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C167" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="D167" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="D167" s="30" t="s">
+      <c r="E167" s="30" t="s">
         <v>751</v>
       </c>
-      <c r="E167" s="30" t="s">
+      <c r="F167" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="F167" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="G167" s="4">
         <v>3</v>
       </c>
       <c r="H167" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="76">
@@ -8166,25 +8165,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C168" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="D168" s="30" t="s">
         <v>755</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="E168" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="F168" s="30" t="s">
         <v>757</v>
-      </c>
-      <c r="F168" s="30" t="s">
-        <v>758</v>
       </c>
       <c r="G168" s="4">
         <v>2</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="57">
@@ -8192,25 +8191,25 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C169" s="30" t="s">
         <v>759</v>
       </c>
-      <c r="C169" s="30" t="s">
+      <c r="D169" s="30" t="s">
         <v>760</v>
       </c>
-      <c r="D169" s="30" t="s">
+      <c r="E169" s="30" t="s">
         <v>761</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="F169" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="G169" s="4">
         <v>2</v>
       </c>
       <c r="H169" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="95">
@@ -8218,25 +8217,25 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C170" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="D170" s="30" t="s">
         <v>765</v>
       </c>
-      <c r="D170" s="30" t="s">
+      <c r="E170" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="E170" s="30" t="s">
+      <c r="F170" s="30" t="s">
         <v>767</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>768</v>
       </c>
       <c r="G170" s="4">
         <v>1</v>
       </c>
       <c r="H170" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="76">
@@ -8244,25 +8243,25 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C171" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="D171" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="D171" s="30" t="s">
+      <c r="E171" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="F171" s="30" t="s">
         <v>772</v>
-      </c>
-      <c r="F171" s="30" t="s">
-        <v>773</v>
       </c>
       <c r="G171" s="4">
         <v>3</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="57">
@@ -8270,25 +8269,25 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C172" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="C172" s="30" t="s">
+      <c r="D172" s="30" t="s">
         <v>775</v>
       </c>
-      <c r="D172" s="30" t="s">
+      <c r="E172" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="F172" s="30" t="s">
         <v>777</v>
-      </c>
-      <c r="F172" s="30" t="s">
-        <v>778</v>
       </c>
       <c r="G172" s="4">
         <v>4</v>
       </c>
       <c r="H172" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="76">
@@ -8296,25 +8295,25 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C173" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="C173" s="30" t="s">
+      <c r="D173" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="D173" s="30" t="s">
-        <v>781</v>
-      </c>
       <c r="E173" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="F173" s="30" t="s">
         <v>722</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>723</v>
       </c>
       <c r="G173" s="4">
         <v>3</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="57">
@@ -8322,25 +8321,25 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C174" s="30" t="s">
         <v>782</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="D174" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="E174" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="F174" s="30" t="s">
         <v>785</v>
-      </c>
-      <c r="F174" s="30" t="s">
-        <v>786</v>
       </c>
       <c r="G174" s="4">
         <v>4</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="38">
@@ -8348,25 +8347,25 @@
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="D175" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="E175" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="F175" s="9" t="s">
         <v>790</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>791</v>
       </c>
       <c r="G175" s="4">
         <v>1</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="57">
@@ -8374,25 +8373,25 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C176" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="C176" s="30" t="s">
+      <c r="D176" s="30" t="s">
         <v>793</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="E176" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="E176" s="30" t="s">
+      <c r="F176" s="9" t="s">
         <v>795</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>796</v>
       </c>
       <c r="G176" s="4">
         <v>2</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="38">
@@ -8400,25 +8399,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C177" s="30" t="s">
         <v>797</v>
       </c>
-      <c r="C177" s="30" t="s">
+      <c r="D177" s="30" t="s">
         <v>798</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="E177" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="E177" s="30" t="s">
+      <c r="F177" s="30" t="s">
         <v>800</v>
-      </c>
-      <c r="F177" s="30" t="s">
-        <v>801</v>
       </c>
       <c r="G177" s="4">
         <v>1</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="38">
@@ -8426,25 +8425,25 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C178" s="30" t="s">
         <v>802</v>
       </c>
-      <c r="C178" s="30" t="s">
+      <c r="D178" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="E178" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="E178" s="30" t="s">
+      <c r="F178" s="30" t="s">
         <v>805</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>806</v>
       </c>
       <c r="G178" s="4">
         <v>4</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="57">
@@ -8452,25 +8451,25 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C179" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="C179" s="30" t="s">
+      <c r="D179" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="D179" s="30" t="s">
+      <c r="E179" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="F179" s="30" t="s">
         <v>810</v>
-      </c>
-      <c r="F179" s="30" t="s">
-        <v>811</v>
       </c>
       <c r="G179" s="4">
         <v>3</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="38">
@@ -8478,25 +8477,25 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C180" s="30" t="s">
         <v>812</v>
       </c>
-      <c r="C180" s="30" t="s">
+      <c r="D180" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="E180" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="F180" s="30" t="s">
         <v>815</v>
-      </c>
-      <c r="F180" s="30" t="s">
-        <v>816</v>
       </c>
       <c r="G180" s="4">
         <v>2</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="114">
@@ -8504,23 +8503,23 @@
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="D181" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="E181" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="10">
         <v>3</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="76">
@@ -8528,25 +8527,25 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" s="30" t="s">
         <v>817</v>
       </c>
-      <c r="C182" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D182" s="30" t="s">
+      <c r="E182" s="30" t="s">
         <v>818</v>
       </c>
-      <c r="E182" s="30" t="s">
+      <c r="F182" s="30" t="s">
         <v>819</v>
-      </c>
-      <c r="F182" s="30" t="s">
-        <v>820</v>
       </c>
       <c r="G182" s="4">
         <v>1</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="57">
@@ -8554,7 +8553,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C183" s="30">
         <v>2</v>
@@ -8572,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="76">
@@ -8580,25 +8579,25 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C184" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="D184" s="30" t="s">
         <v>825</v>
       </c>
-      <c r="D184" s="30" t="s">
+      <c r="E184" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="E184" s="30" t="s">
+      <c r="F184" s="30" t="s">
         <v>827</v>
-      </c>
-      <c r="F184" s="30" t="s">
-        <v>828</v>
       </c>
       <c r="G184" s="4">
         <v>3</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="114">
@@ -8606,25 +8605,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C185" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="C185" s="30" t="s">
+      <c r="D185" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="E185" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="E185" s="30" t="s">
+      <c r="F185" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="F185" s="30" t="s">
-        <v>833</v>
       </c>
       <c r="G185" s="4">
         <v>4</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="171">
@@ -8632,13 +8631,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C186" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E186" s="30"/>
       <c r="F186" s="30"/>
@@ -8646,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="57">
@@ -8654,25 +8653,25 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="F187" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="G187" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="H187" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="76">
@@ -8680,13 +8679,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
@@ -8694,7 +8693,7 @@
         <v>2</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="76">
@@ -8702,13 +8701,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C189" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D189" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E189" s="30"/>
       <c r="F189" s="30"/>
@@ -8716,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="95">
@@ -8724,13 +8723,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C190" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D190" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E190" s="30"/>
       <c r="F190" s="30"/>
@@ -8738,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="95">
@@ -8746,25 +8745,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C191" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="D191" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="D191" s="30" t="s">
+      <c r="E191" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="E191" s="30" t="s">
-        <v>850</v>
-      </c>
       <c r="F191" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G191" s="4">
         <v>4</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="76">
@@ -8772,25 +8771,25 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C192" s="30" t="s">
         <v>851</v>
       </c>
-      <c r="C192" s="30" t="s">
+      <c r="D192" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="E192" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="E192" s="30" t="s">
+      <c r="F192" s="30" t="s">
         <v>854</v>
-      </c>
-      <c r="F192" s="30" t="s">
-        <v>855</v>
       </c>
       <c r="G192" s="4">
         <v>4</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="190">
@@ -8798,13 +8797,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C193" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D193" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
@@ -8812,7 +8811,7 @@
         <v>2</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="209">
@@ -8820,13 +8819,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C194" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D194" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
@@ -8834,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="133">
@@ -8842,13 +8841,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C195" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D195" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="D195" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E195" s="30"/>
       <c r="F195" s="30"/>
@@ -8856,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="152">
@@ -8864,25 +8863,25 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C196" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="D196" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="E196" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="E196" s="30" t="s">
+      <c r="F196" s="30" t="s">
         <v>865</v>
-      </c>
-      <c r="F196" s="30" t="s">
-        <v>866</v>
       </c>
       <c r="G196" s="4">
         <v>3</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="114">
@@ -8890,23 +8889,23 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E197" s="30" t="s">
         <v>868</v>
-      </c>
-      <c r="C197" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D197" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="E197" s="30" t="s">
-        <v>869</v>
       </c>
       <c r="F197" s="30"/>
       <c r="G197" s="4">
         <v>3</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="95">
@@ -8914,13 +8913,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C198" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="C198" s="30" t="s">
+      <c r="D198" s="30" t="s">
         <v>872</v>
-      </c>
-      <c r="D198" s="30" t="s">
-        <v>873</v>
       </c>
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
@@ -8928,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="H198" s="30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="57">
@@ -8936,25 +8935,25 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="D199" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E199" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="D199" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>877</v>
-      </c>
       <c r="F199" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="95">
@@ -8962,21 +8961,21 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="C200" s="15" t="s">
-        <v>879</v>
-      </c>
       <c r="D200" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="95">
@@ -8984,23 +8983,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="D201" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="D201" s="7" t="s">
-        <v>882</v>
-      </c>
       <c r="E201" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="133">
@@ -9008,25 +9007,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="D202" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="E202" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="F202" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="G202" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H202" s="30" t="s">
         <v>887</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="H202" s="30" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="133">
@@ -9034,21 +9033,21 @@
         <v>202</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C203" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="114">
@@ -9056,25 +9055,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="D204" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="E204" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="F204" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="F204" s="7" t="s">
-        <v>894</v>
-      </c>
       <c r="G204" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="95">
@@ -9082,25 +9081,25 @@
         <v>204</v>
       </c>
       <c r="B205" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="D205" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="E205" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="F205" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="G205" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H205" s="30" t="s">
         <v>899</v>
-      </c>
-      <c r="G205" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="H205" s="30" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="95">
@@ -9108,23 +9107,23 @@
         <v>205</v>
       </c>
       <c r="B206" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="E206" s="7" t="s">
         <v>901</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>902</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H206" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="95">
@@ -9132,23 +9131,23 @@
         <v>206</v>
       </c>
       <c r="B207" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="C207" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="E207" s="7" t="s">
         <v>906</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>907</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="95">
@@ -9156,23 +9155,23 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="D208" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="E208" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F208" s="7"/>
       <c r="G208" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="76">
@@ -9180,25 +9179,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="C209" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="F209" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="H209" s="30" t="s">
         <v>915</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G209" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="H209" s="30" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="114">
@@ -9206,25 +9205,25 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="E210" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F210" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="E210" s="7" t="s">
-        <v>896</v>
-      </c>
-      <c r="F210" s="7" t="s">
+      <c r="G210" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H210" s="30" t="s">
         <v>920</v>
-      </c>
-      <c r="G210" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="H210" s="30" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="95">
@@ -9232,25 +9231,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="E211" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F211" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="E211" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="F211" s="7" t="s">
+      <c r="G211" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="H211" s="30" t="s">
         <v>925</v>
-      </c>
-      <c r="G211" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="H211" s="30" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="152">
@@ -9258,25 +9257,25 @@
         <v>211</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="D212" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="E212" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="F212" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="F212" s="7" t="s">
-        <v>931</v>
-      </c>
       <c r="G212" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H212" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="76">
@@ -9284,25 +9283,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="E213" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="F213" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="H213" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G213" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="H213" s="30" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="57">
@@ -9310,25 +9309,25 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="D214" s="30" t="s">
         <v>936</v>
       </c>
-      <c r="C214" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="D214" s="30" t="s">
+      <c r="E214" s="30" t="s">
         <v>937</v>
       </c>
-      <c r="E214" s="30" t="s">
-        <v>938</v>
-      </c>
       <c r="F214" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="95">
@@ -9336,21 +9335,21 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D215" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E215" s="30"/>
       <c r="F215" s="30"/>
       <c r="G215" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H215" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="95">
@@ -9358,25 +9357,25 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C216" s="30" t="s">
         <v>940</v>
       </c>
-      <c r="C216" s="30" t="s">
+      <c r="D216" s="30" t="s">
         <v>941</v>
       </c>
-      <c r="D216" s="30" t="s">
+      <c r="E216" s="30" t="s">
         <v>942</v>
       </c>
-      <c r="E216" s="30" t="s">
+      <c r="F216" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H216" s="30" t="s">
         <v>943</v>
-      </c>
-      <c r="F216" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="H216" s="30" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="95">
@@ -9384,25 +9383,25 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C217" s="30" t="s">
         <v>945</v>
       </c>
-      <c r="C217" s="30" t="s">
+      <c r="D217" s="30" t="s">
         <v>946</v>
       </c>
-      <c r="D217" s="30" t="s">
+      <c r="E217" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="E217" s="30" t="s">
-        <v>948</v>
-      </c>
       <c r="F217" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H217" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="133">
@@ -9410,25 +9409,25 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F218" s="30" t="s">
         <v>949</v>
       </c>
-      <c r="C218" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D218" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="E218" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F218" s="30" t="s">
-        <v>950</v>
-      </c>
       <c r="G218" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="219" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9436,25 +9435,25 @@
         <v>218</v>
       </c>
       <c r="B219" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="C219" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="C219" s="16" t="s">
+      <c r="D219" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="D219" s="16" t="s">
+      <c r="E219" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="F219" s="16" t="s">
         <v>958</v>
-      </c>
-      <c r="F219" s="16" t="s">
-        <v>959</v>
       </c>
       <c r="G219" s="4">
         <v>2</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="220" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9462,25 +9461,25 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C220" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="C220" s="16" t="s">
+      <c r="D220" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="D220" s="16" t="s">
+      <c r="E220" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="F220" s="16" t="s">
         <v>963</v>
-      </c>
-      <c r="F220" s="16" t="s">
-        <v>964</v>
       </c>
       <c r="G220" s="4">
         <v>4</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9488,25 +9487,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="C221" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="C221" s="16" t="s">
+      <c r="D221" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="D221" s="16" t="s">
+      <c r="E221" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="F221" s="16" t="s">
         <v>968</v>
-      </c>
-      <c r="F221" s="16" t="s">
-        <v>969</v>
       </c>
       <c r="G221" s="4">
         <v>3</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="222" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9514,25 +9513,25 @@
         <v>221</v>
       </c>
       <c r="B222" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="C222" s="16" t="s">
         <v>970</v>
       </c>
-      <c r="C222" s="16" t="s">
+      <c r="D222" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="D222" s="16" t="s">
+      <c r="E222" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="F222" s="16" t="s">
         <v>973</v>
-      </c>
-      <c r="F222" s="16" t="s">
-        <v>974</v>
       </c>
       <c r="G222" s="4">
         <v>3</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="223" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9540,25 +9539,25 @@
         <v>222</v>
       </c>
       <c r="B223" s="31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D223" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="C223" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D223" s="16" t="s">
+      <c r="E223" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="F223" s="16" t="s">
         <v>977</v>
-      </c>
-      <c r="F223" s="16" t="s">
-        <v>978</v>
       </c>
       <c r="G223" s="4">
         <v>2</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9566,25 +9565,25 @@
         <v>223</v>
       </c>
       <c r="B224" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="C224" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="C224" s="16" t="s">
+      <c r="D224" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="D224" s="16" t="s">
+      <c r="E224" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="F224" s="16" t="s">
         <v>982</v>
-      </c>
-      <c r="F224" s="16" t="s">
-        <v>983</v>
       </c>
       <c r="G224" s="4">
         <v>4</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9592,25 +9591,25 @@
         <v>224</v>
       </c>
       <c r="B225" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="C225" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="C225" s="16" t="s">
+      <c r="D225" s="16" t="s">
         <v>985</v>
       </c>
-      <c r="D225" s="16" t="s">
+      <c r="E225" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="F225" s="16" t="s">
         <v>987</v>
-      </c>
-      <c r="F225" s="16" t="s">
-        <v>988</v>
       </c>
       <c r="G225" s="4">
         <v>3</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="226" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9618,25 +9617,25 @@
         <v>225</v>
       </c>
       <c r="B226" s="31" t="s">
+        <v>988</v>
+      </c>
+      <c r="C226" s="16" t="s">
         <v>989</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="D226" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="D226" s="16" t="s">
+      <c r="E226" s="16" t="s">
         <v>991</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="F226" s="16" t="s">
         <v>992</v>
-      </c>
-      <c r="F226" s="16" t="s">
-        <v>993</v>
       </c>
       <c r="G226" s="4">
         <v>1</v>
       </c>
       <c r="H226" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="227" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9644,25 +9643,25 @@
         <v>226</v>
       </c>
       <c r="B227" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="C227" s="16" t="s">
         <v>994</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="D227" s="16" t="s">
         <v>995</v>
       </c>
-      <c r="D227" s="16" t="s">
+      <c r="E227" s="16" t="s">
         <v>996</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="F227" s="16" t="s">
         <v>997</v>
-      </c>
-      <c r="F227" s="16" t="s">
-        <v>998</v>
       </c>
       <c r="G227" s="4">
         <v>3</v>
       </c>
       <c r="H227" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="228" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9670,25 +9669,25 @@
         <v>227</v>
       </c>
       <c r="B228" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="C228" s="16" t="s">
         <v>999</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="D228" s="16" t="s">
         <v>1000</v>
       </c>
-      <c r="D228" s="16" t="s">
+      <c r="E228" s="16" t="s">
         <v>1001</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="F228" s="16" t="s">
         <v>1002</v>
-      </c>
-      <c r="F228" s="16" t="s">
-        <v>1003</v>
       </c>
       <c r="G228" s="4">
         <v>3</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="229" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9696,25 +9695,25 @@
         <v>228</v>
       </c>
       <c r="B229" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C229" s="16" t="s">
         <v>1004</v>
       </c>
-      <c r="C229" s="16" t="s">
+      <c r="D229" s="16" t="s">
         <v>1005</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="E229" s="16" t="s">
         <v>1006</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="F229" s="16" t="s">
         <v>1007</v>
-      </c>
-      <c r="F229" s="16" t="s">
-        <v>1008</v>
       </c>
       <c r="G229" s="4">
         <v>3</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="230" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9722,25 +9721,25 @@
         <v>229</v>
       </c>
       <c r="B230" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="D230" s="16" t="s">
         <v>1009</v>
       </c>
-      <c r="C230" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="D230" s="16" t="s">
+      <c r="E230" s="16" t="s">
         <v>1010</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="F230" s="16" t="s">
         <v>1011</v>
-      </c>
-      <c r="F230" s="16" t="s">
-        <v>1012</v>
       </c>
       <c r="G230" s="4">
         <v>2</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="231" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9748,25 +9747,25 @@
         <v>230</v>
       </c>
       <c r="B231" s="31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C231" s="16" t="s">
         <v>1013</v>
       </c>
-      <c r="C231" s="16" t="s">
+      <c r="D231" s="16" t="s">
         <v>1014</v>
       </c>
-      <c r="D231" s="16" t="s">
+      <c r="E231" s="16" t="s">
         <v>1015</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="F231" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="F231" s="16" t="s">
-        <v>1017</v>
       </c>
       <c r="G231" s="4">
         <v>1</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="17" customFormat="1" ht="23">
@@ -9774,25 +9773,25 @@
         <v>231</v>
       </c>
       <c r="B232" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C232" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="C232" s="16" t="s">
+      <c r="D232" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="D232" s="16" t="s">
+      <c r="E232" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="F232" s="16" t="s">
         <v>1021</v>
-      </c>
-      <c r="F232" s="16" t="s">
-        <v>1022</v>
       </c>
       <c r="G232" s="4">
         <v>3</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="233" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9800,25 +9799,25 @@
         <v>232</v>
       </c>
       <c r="B233" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C233" s="16" t="s">
         <v>1023</v>
       </c>
-      <c r="C233" s="16" t="s">
+      <c r="D233" s="16" t="s">
         <v>1024</v>
       </c>
-      <c r="D233" s="16" t="s">
+      <c r="E233" s="16" t="s">
         <v>1025</v>
       </c>
-      <c r="E233" s="16" t="s">
-        <v>1026</v>
-      </c>
       <c r="F233" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G233" s="4">
         <v>2</v>
       </c>
       <c r="H233" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="234" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9826,25 +9825,25 @@
         <v>233</v>
       </c>
       <c r="B234" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C234" s="16" t="s">
         <v>1028</v>
       </c>
-      <c r="C234" s="16" t="s">
+      <c r="D234" s="16" t="s">
         <v>1029</v>
       </c>
-      <c r="D234" s="16" t="s">
+      <c r="E234" s="16" t="s">
         <v>1030</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="F234" s="16" t="s">
         <v>1031</v>
-      </c>
-      <c r="F234" s="16" t="s">
-        <v>1032</v>
       </c>
       <c r="G234" s="4">
         <v>3</v>
       </c>
       <c r="H234" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="235" spans="1:8" s="17" customFormat="1" ht="38">
@@ -9852,25 +9851,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C235" s="16" t="s">
         <v>1033</v>
       </c>
-      <c r="C235" s="16" t="s">
+      <c r="D235" s="16" t="s">
         <v>1034</v>
       </c>
-      <c r="D235" s="16" t="s">
+      <c r="E235" s="16" t="s">
         <v>1035</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="F235" s="16" t="s">
         <v>1036</v>
-      </c>
-      <c r="F235" s="16" t="s">
-        <v>1037</v>
       </c>
       <c r="G235" s="4">
         <v>2</v>
       </c>
       <c r="H235" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="236" spans="1:8" s="18" customFormat="1" ht="38">
@@ -9878,25 +9877,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C236" s="16" t="s">
         <v>1038</v>
       </c>
-      <c r="C236" s="16" t="s">
+      <c r="D236" s="16" t="s">
         <v>1039</v>
       </c>
-      <c r="D236" s="16" t="s">
+      <c r="E236" s="16" t="s">
         <v>1040</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="F236" s="16" t="s">
         <v>1041</v>
-      </c>
-      <c r="F236" s="16" t="s">
-        <v>1042</v>
       </c>
       <c r="G236" s="4">
         <v>3</v>
       </c>
       <c r="H236" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="237" spans="1:8" s="18" customFormat="1" ht="38">
@@ -9904,25 +9903,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C237" s="16" t="s">
         <v>1043</v>
       </c>
-      <c r="C237" s="16" t="s">
+      <c r="D237" s="16" t="s">
         <v>1044</v>
       </c>
-      <c r="D237" s="16" t="s">
+      <c r="E237" s="16" t="s">
         <v>1045</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="F237" s="16" t="s">
         <v>1046</v>
-      </c>
-      <c r="F237" s="16" t="s">
-        <v>1047</v>
       </c>
       <c r="G237" s="4">
         <v>3</v>
       </c>
       <c r="H237" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="238" spans="1:8" s="18" customFormat="1" ht="38">
@@ -9930,25 +9929,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C238" s="16" t="s">
         <v>1048</v>
       </c>
-      <c r="C238" s="16" t="s">
+      <c r="D238" s="16" t="s">
         <v>1049</v>
       </c>
-      <c r="D238" s="16" t="s">
+      <c r="E238" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F238" s="16" t="s">
         <v>1050</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F238" s="16" t="s">
-        <v>1051</v>
       </c>
       <c r="G238" s="4">
         <v>3</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="239" spans="1:8" s="18" customFormat="1" ht="38">
@@ -9956,25 +9955,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C239" s="16" t="s">
         <v>1052</v>
       </c>
-      <c r="C239" s="16" t="s">
+      <c r="D239" s="16" t="s">
         <v>1053</v>
       </c>
-      <c r="D239" s="16" t="s">
+      <c r="E239" s="16" t="s">
         <v>1054</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="F239" s="16" t="s">
         <v>1055</v>
-      </c>
-      <c r="F239" s="16" t="s">
-        <v>1056</v>
       </c>
       <c r="G239" s="4">
         <v>3</v>
       </c>
       <c r="H239" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="240" spans="1:8" s="18" customFormat="1" ht="38">
@@ -9982,25 +9981,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C240" s="16" t="s">
         <v>1057</v>
       </c>
-      <c r="C240" s="16" t="s">
+      <c r="D240" s="16" t="s">
         <v>1058</v>
       </c>
-      <c r="D240" s="16" t="s">
+      <c r="E240" s="16" t="s">
         <v>1059</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="F240" s="16" t="s">
         <v>1060</v>
-      </c>
-      <c r="F240" s="16" t="s">
-        <v>1061</v>
       </c>
       <c r="G240" s="4">
         <v>2</v>
       </c>
       <c r="H240" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="18" customFormat="1" ht="38">
@@ -10008,25 +10007,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C241" s="16" t="s">
         <v>1062</v>
       </c>
-      <c r="C241" s="16" t="s">
+      <c r="D241" s="16" t="s">
         <v>1063</v>
       </c>
-      <c r="D241" s="16" t="s">
+      <c r="E241" s="16" t="s">
         <v>1064</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="F241" s="16" t="s">
         <v>1065</v>
-      </c>
-      <c r="F241" s="16" t="s">
-        <v>1066</v>
       </c>
       <c r="G241" s="4">
         <v>2</v>
       </c>
       <c r="H241" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="19">
@@ -10050,13 +10049,13 @@
       <c r="H243" s="20"/>
     </row>
     <row r="244" spans="1:8" ht="19">
-      <c r="A244" s="37"/>
-      <c r="B244" s="37"/>
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
       <c r="D244" s="33"/>
       <c r="E244" s="23"/>
-      <c r="F244" s="38"/>
-      <c r="G244" s="38"/>
-      <c r="H244" s="38"/>
+      <c r="F244" s="36"/>
+      <c r="G244" s="36"/>
+      <c r="H244" s="36"/>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="33"/>
@@ -10111,45 +10110,45 @@
       <c r="H250" s="34"/>
     </row>
     <row r="251" spans="1:8" ht="19">
-      <c r="A251" s="37"/>
-      <c r="B251" s="37"/>
-      <c r="C251" s="38"/>
-      <c r="D251" s="38"/>
-      <c r="E251" s="38"/>
-      <c r="F251" s="38"/>
-      <c r="G251" s="38"/>
-      <c r="H251" s="38"/>
+      <c r="A251" s="35"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="36"/>
+      <c r="G251" s="36"/>
+      <c r="H251" s="36"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
     </row>
     <row r="310" spans="2:8" ht="19">
-      <c r="B310" s="36"/>
-      <c r="C310" s="36"/>
-      <c r="F310" s="36"/>
-      <c r="G310" s="36"/>
-      <c r="H310" s="36"/>
+      <c r="B310" s="38"/>
+      <c r="C310" s="38"/>
+      <c r="F310" s="38"/>
+      <c r="G310" s="38"/>
+      <c r="H310" s="38"/>
     </row>
     <row r="316" spans="2:8" ht="19">
-      <c r="B316" s="36"/>
-      <c r="C316" s="36"/>
-      <c r="F316" s="36"/>
-      <c r="G316" s="36"/>
-      <c r="H316" s="36"/>
+      <c r="B316" s="38"/>
+      <c r="C316" s="38"/>
+      <c r="F316" s="38"/>
+      <c r="G316" s="38"/>
+      <c r="H316" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="F310:H310"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="F316:H316"/>
     <mergeCell ref="A244:B244"/>
     <mergeCell ref="F244:H244"/>
     <mergeCell ref="A251:B251"/>
     <mergeCell ref="C251:E251"/>
     <mergeCell ref="F251:H251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="F310:H310"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="F316:H316"/>
   </mergeCells>
   <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
